--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_011.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_011.xlsx
@@ -31,304 +31,310 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295016AA2.01) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295026EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Heat capacity</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295030EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) RCIC </t>
-  </si>
-  <si>
-    <t>(295024EK2.24) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(295027EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Containment spray</t>
-  </si>
-  <si>
-    <t>(600000AA2.07) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Whether malfunction(s) are due to common-mode electrical failures</t>
-  </si>
-  <si>
-    <t>(700000AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Under-excitation</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(295005AA1.07) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(295018AK2.04) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Reactor recirculation system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295001AK3.07) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Recirculation pump discharge/suction valve manipulation </t>
-  </si>
-  <si>
-    <t>(295006AA2.03) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295025EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Pressure effects on reactor water level</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295021AA1.03) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(295004AK2.01) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) Battery charger</t>
-  </si>
-  <si>
-    <t>(295023AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Ventilation isolation</t>
-  </si>
-  <si>
-    <t>(295038EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Emergency plan implementation</t>
-  </si>
-  <si>
-    <t>(295003AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
-  </si>
-  <si>
-    <t>(295012AA1.03) Ability to operate and/or monitor the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.7 / 45.6) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(500000EK2.05) Knowledge of the relationship between the (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION and the following systems or components: (CFR: 41.7 / 45.8) Hydrogen and oxygen recombiners</t>
-  </si>
-  <si>
-    <t>(295036EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.5 / 41.10 / 45.6) Isolating affected systems</t>
-  </si>
-  <si>
-    <t>(295029EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Drywell/containment pressure</t>
-  </si>
-  <si>
-    <t>(295008AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Feed flow/steam flow mismatch</t>
-  </si>
-  <si>
-    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(263000A3.03) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Transfers</t>
-  </si>
-  <si>
-    <t>(259002K4.04) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Reactor water level setpoint setdown after a reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(212000K6.12) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.7 / 45.7) Main steam system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(217000A4.12) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) </t>
-  </si>
-  <si>
-    <t>(215003K2.01) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) IRM channels/detectors</t>
-  </si>
-  <si>
-    <t>(211000K3.04) Knowledge of the effect that a loss or malfunction of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Jet pump differential pressure (BWR 3, 4, 5, 6)</t>
-  </si>
-  <si>
-    <t>(261000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Heat removal mechanisms</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(510000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SWS*) SERVICE WATER SYSTEM and the following systems: (CFR: 41.4 to 41.8 / 45.7 / 45.8) Emergency generators (diesel/jet)</t>
-  </si>
-  <si>
-    <t>(209001A2.02) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve closures due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(262001A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(209002A3.01) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(215004K4.06) Knowledge of (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) IRM/SRMS interlock</t>
-  </si>
-  <si>
-    <t>(239002K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.7 / 45.5 to 45.8) Discharge line vacuum breaker</t>
+    <t>(295023AA1.03) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Fuel handling equipment</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(295016AA2.08) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Successful transfer</t>
+  </si>
+  <si>
+    <t>(295003AK1.07) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Load sequencing</t>
+  </si>
+  <si>
+    <t>(295021AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Establishing alternate heat removal flow paths</t>
+  </si>
+  <si>
+    <t>(700000AK2.07) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(295031EA1.11) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Condensate system</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295026EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295004AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
+  </si>
+  <si>
+    <t>(295018AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Securing individual components (preventing equipment damage)</t>
+  </si>
+  <si>
+    <t>(295006AK2.01) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(295037EA1.16) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(600000AA2.04) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) The fire\u2019s extent of potential operational damage to plant equipment</t>
+  </si>
+  <si>
+    <t>(295019AK2.17) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) High-pressure coolant injection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295001AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) </t>
+  </si>
+  <si>
+    <t>(295038EK2.07) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Control room heating, ventilation and air conditioning</t>
+  </si>
+  <si>
+    <t>(295030EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) ECCSs</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295032EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.8 to 41.10) Secondary containment leakage detection</t>
+  </si>
+  <si>
+    <t>(295014AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.5 / 45.6) Changing control rod positions</t>
+  </si>
+  <si>
+    <t>(295012AK2.01) Knowledge of the relationship between the (APE 12) HIGH DRYWELL TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Drywell ventilation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295034EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.7 / 45.6) SGTS/FRVS </t>
+  </si>
+  <si>
+    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295033EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Source of high area radiation</t>
   </si>
   <si>
     <t>(400000A4.01) Ability to manually operate and/or monitor the (SF8 CCS) COMPONENT COOLING WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) CCW indications and control</t>
   </si>
   <si>
-    <t>(218000K2.01) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) ADS logic</t>
-  </si>
-  <si>
-    <t>(203000K3.05) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(264000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.5 / 45.3) Generator load limits</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (291005K1.09) MOTORS AND GENERATORS (CFR: 41.7) Interrelations of the following: VARs, watts, amps, volts, power factor</t>
-  </si>
-  <si>
-    <t>(300000K1.20) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 IA) INSTRUMENT AIR SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 / 45.8) Main steam system</t>
-  </si>
-  <si>
-    <t>(262002A2.03) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Frequency malfunctions in the system</t>
-  </si>
-  <si>
-    <t>(215005A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.5 / 45.5) Reactor power indication</t>
-  </si>
-  <si>
-    <t>(263000A3.02) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Breaker trips</t>
-  </si>
-  <si>
-    <t>(259002K4.03) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Reactor feedwater pump runout protection</t>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(263000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Voltage</t>
+  </si>
+  <si>
+    <t>(215003K4.08) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) SRMS-IRM overlap</t>
+  </si>
+  <si>
+    <t>(217000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Suppression pool</t>
+  </si>
+  <si>
+    <t>(259002K2.02) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Feedwater coolant injection (FWCI) initiation logic</t>
+  </si>
+  <si>
+    <t>(203000K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.7 / 45.7) ADS</t>
+  </si>
+  <si>
+    <t>(300000A2.01) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Air dryer and filter malfunctions</t>
+  </si>
+  <si>
+    <t>(218000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Primary containment/drywell pressure</t>
+  </si>
+  <si>
+    <t>(211000K3.03) Knowledge of the effect that a loss or malfunction of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Core plate differential pressure</t>
+  </si>
+  <si>
+    <t>(264000A3.05) Ability to monitor automatic operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.7 / 45.7) Load shedding and sequencing</t>
+  </si>
+  <si>
+    <t>(209002A4.03) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Injection valve</t>
+  </si>
+  <si>
+    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (291002K1.16) SENSORS AND DETECTORS (CFR: 41.7) (POSITION DETECTORS) Failure modes of reed switches, LVDTs, limit switches, and potentiometers</t>
+  </si>
+  <si>
+    <t>(215004A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) RPS status</t>
+  </si>
+  <si>
+    <t>(262001K4.03) Knowledge of (SF6 AC) AC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic bus transfer</t>
+  </si>
+  <si>
+    <t>(239002K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrument system</t>
+  </si>
+  <si>
+    <t>(510000K2.01) (SF4 SWS*) SERVICE WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Service water system pumps (Class 1E)</t>
   </si>
   <si>
     <t>(212000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.7 / 45.7) Reactor/turbine pressure regulating system</t>
   </si>
   <si>
-    <t>(217000A4.03) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) System valves</t>
-  </si>
-  <si>
-    <t>(202001A2.25) Ability to (a) predict the impacts of the following on the (SF1, SF4 RS) RECIRCULATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation flow control valve lockup</t>
-  </si>
-  <si>
-    <t>(256000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 CDS) CONDENSATE SYSTEM including: (CFR: 41.5 / 45.5) Feedwater temperature</t>
-  </si>
-  <si>
-    <t>(268000A3.01) Ability to monitor automatic operation of the (SF9 RW) RADWASTE SYSTEM including: (CFR: 41.7 / 45.7) Radiological release isolation valves</t>
-  </si>
-  <si>
-    <t>(202002K4.06) Knowledge of (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Recirculation pump adequate NPSH</t>
-  </si>
-  <si>
-    <t>(219000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE: (CFR: 41.7 / 45.7) AC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(216000A4.02) Ability to manually operate and/or monitor the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION in the control room: (CFR: 41.7 / 45.5 to 45.8) Channel select controls</t>
-  </si>
-  <si>
-    <t>(241000K2.02) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Controls</t>
-  </si>
-  <si>
-    <t>(201005K3.04) Knowledge of the effect that a loss or malfunction of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) will have on the following systems or system parameters: (CFR: 41.6 / 41.7 / 45.4 to 45.6) Flux shaping</t>
-  </si>
-  <si>
-    <t>(230000K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE: (CFR: 41.5 / 45.3) Heat exchanger operation</t>
-  </si>
-  <si>
-    <t>(510001) (SF8 CWS*) CIRCULATING WATER SYSTEM (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(204000K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RHR system</t>
-  </si>
-  <si>
-    <t>(G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292005K1.10) CONTROL RODS (CFR: 41.1) State the purpose of flux shaping</t>
-  </si>
-  <si>
-    <t>(292004K1.02) REACTIVITY COEFFICIENTS (CFR: 41.1) Describe the effect on the magnitude of the temperature coefficient of reactivity from changes in moderator temperature and core age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(292003K1.04) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define delayed neutron fraction and effective delayed </t>
-  </si>
-  <si>
-    <t>(293010K1.03) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) Define reference temperature</t>
-  </si>
-  <si>
-    <t>(293003K1.07) STEAM (CFR: 41.14) Define the following term: Saturated liquid</t>
+    <t>(205000A2.05) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) System isolation</t>
+  </si>
+  <si>
+    <t>(215005K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) LPRM/OPRM/APRM channel assignments</t>
+  </si>
+  <si>
+    <t>(262002K3.13) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(223002A3.04) Ability to monitor automatic operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.7 / 45.7) Verification of relay operation</t>
+  </si>
+  <si>
+    <t>(400000K1.19) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Reactor feedwater system</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(263000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Battery charging/discharging rate</t>
+  </si>
+  <si>
+    <t>(215003K4.02) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Reactor SCRAM signals</t>
+  </si>
+  <si>
+    <t>(271000K3.05) Knowledge of the effect that a loss or malfunction of the (SF9 OG) OFFGAS SYSTEM will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Hydrogen water chemistry system</t>
+  </si>
+  <si>
+    <t>(290001A3.01) Ability to monitor automatic operation of the (SF5 SC) SECONDARY CONTAINMENT including: (CFR: 41.7 / 45.7) Secondary containment isolation</t>
+  </si>
+  <si>
+    <t>(215001A4.06) Ability to manually operate and/or monitor the (SF7 TIP) TRAVERSING IN CORE PROBE in the control room: (CFR: 41.7 / 45.5 to 45.8) Drive mechanism operation</t>
+  </si>
+  <si>
+    <t>(219000) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE (291006K1.17) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Consequences of heat exchanger tube failure</t>
+  </si>
+  <si>
+    <t>(510001A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CWS*) CIRCULATING WATER SYSTEM including: (CFR: 41.5 / 45.5) Weather changes</t>
+  </si>
+  <si>
+    <t>(201003K4.07) Knowledge of (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM design features and/or interlocks that provide for the following: (CFR: 41.1-7 / 41.10 / 45.1-6) Maintaining the control rod at a given position</t>
+  </si>
+  <si>
+    <t>(204000K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) SLCS</t>
+  </si>
+  <si>
+    <t>(201001K2.07) (SF1 CRDH) CRD HYDRAULIC SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Breaker control</t>
+  </si>
+  <si>
+    <t>(223001K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES: (CFR: 41.7 / 45.7) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(233000A2.03) Ability to (a) predict the impacts of the following on the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal surge tank level</t>
+  </si>
+  <si>
+    <t>(288000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 PVS) PLANT VENTILATION SYSTEMS : (CFR: 41.7 / 45.4) Differential pressure control</t>
+  </si>
+  <si>
+    <t>(G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292004K1.14) REACTIVITY COEFFICIENTS (CFR: 41.1) Compare the relative magnitudes of the temperature, Doppler, and void coefficients of reactivity</t>
+  </si>
+  <si>
+    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
+  </si>
+  <si>
+    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
   </si>
   <si>
     <t>(293004K1.04) THERMODYNAMIC PROCESS (CFR: 41.14) (NOZZLES) Describe the functions of nozzles in air ejectors</t>
   </si>
   <si>
-    <t>(295016AA2.06) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Cooldown rate</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295037EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295024EA2.07) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Containment radiation levels (Mark III)</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(600000AA2.12) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Location of vital equipment within fire zone</t>
-  </si>
-  <si>
-    <t>(295034EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Source of high radiation levels</t>
-  </si>
-  <si>
-    <t>(295022) (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(295011AA2.04) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) System/component operating limitations</t>
-  </si>
-  <si>
-    <t>(215003A2.05) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Faulty or erratic operation of detectors/system</t>
-  </si>
-  <si>
-    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(261000A2.03) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High train temperature</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(510000A2.08) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal intake water level</t>
-  </si>
-  <si>
-    <t>(290002) (SF4 RVI) REACTOR VESSEL INTERNALS (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(290001A2.07) Ability to (a) predict the impacts of the following on the (SF5 SC) SECONDARY CONTAINMENT and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadvertent fire suppression system initiation</t>
-  </si>
-  <si>
-    <t>(201001) (SF1 CRDH) CRD HYDRAULIC SYSTEM (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
+  </si>
+  <si>
+    <t>(293008K1.22) THERMAL HYDRAULICS (CFR: 41.14) (VIODS AND VOID FRACTION) Explain the term void as applied to core operations</t>
+  </si>
+  <si>
+    <t>(295023AA2.04) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Occurrence of fuel handling accident</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295016AA2.05) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295021AA2.04) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water temperature</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
+  </si>
+  <si>
+    <t>(295036EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Cause of the high water level</t>
+  </si>
+  <si>
+    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295010AA2.02) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
+  </si>
+  <si>
+    <t>(217000A2.06) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of instrument air systems</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(203000A2.03) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve closures due to malfunction(s)</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(218000A2.03) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of pneumatic supply to ADS valves</t>
+  </si>
+  <si>
+    <t>(245000) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS (G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(234000K4.01) Knowledge of (SF8 FH) FUEL HANDLING design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of core alterations during control rod movements</t>
+  </si>
+  <si>
+    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
   </si>
   <si>
     <t>(G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
   </si>
   <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
   <si>
     <t>A2</t>
@@ -337,33 +343,27 @@
     <t>K1</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>A1</t>
+    <t>K3</t>
   </si>
   <si>
     <t>K2</t>
   </si>
   <si>
-    <t>K3</t>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K5</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
     <t>295016</t>
   </si>
   <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
     <t>295026</t>
   </si>
   <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
     <t>295037</t>
   </si>
   <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
     <t>295030</t>
   </si>
   <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
     <t>295005</t>
   </si>
   <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295003</t>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295014</t>
   </si>
   <si>
     <t>295012</t>
   </si>
   <si>
-    <t>500000</t>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>293008</t>
   </si>
   <si>
     <t>295036</t>
   </si>
   <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295022</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>201001</t>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>272000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1463,7 +1463,7 @@
         <v>3.5</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,7 +1511,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D33" t="s">
         <v>110</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,7 +1545,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D35" t="s">
         <v>107</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D41" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1667,7 +1667,7 @@
         <v>3.8</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,7 +1698,7 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D44" t="s">
         <v>110</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D52" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,7 +1987,7 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
         <v>110</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,7 +2021,7 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D63" t="s">
         <v>107</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2381,7 +2381,7 @@
         <v>3.6</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
